--- a/Test Data Driven/AI-Generated/Common/requestQuoteForTestingServices.xlsx
+++ b/Test Data Driven/AI-Generated/Common/requestQuoteForTestingServices.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,9 +450,10 @@
     <col width="19" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="23" customWidth="1" min="6" max="6"/>
-    <col width="36" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="7" max="7"/>
+    <col width="36" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -478,15 +479,20 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>input_phone</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>input_position</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>input_projectTimeline</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>textarea_describeYourTestScenarios</t>
         </is>
@@ -500,6 +506,7 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
